--- a/HR-formula-analytics-in-action.xlsx
+++ b/HR-formula-analytics-in-action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SAC_AI_Builds\HR-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9AE7A3-3A6E-41A6-BB40-B9BA3AF91EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0DF06-6A36-4367-BFB5-40B4FCBDD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="546" windowWidth="15168" windowHeight="10572" tabRatio="648" firstSheet="2" activeTab="4" xr2:uid="{FCFE19A7-F5E8-4923-99F6-F1CC657F2CA2}"/>
+    <workbookView xWindow="2076" yWindow="882" windowWidth="15168" windowHeight="10572" tabRatio="796" firstSheet="1" activeTab="6" xr2:uid="{FCFE19A7-F5E8-4923-99F6-F1CC657F2CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,8 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="110">
   <si>
     <t>1. Turnover Rate:</t>
   </si>
@@ -347,6 +346,27 @@
   <si>
     <t>Sum of Cost-Per-Hire:</t>
   </si>
+  <si>
+    <t>9. Representation Rate:</t>
+  </si>
+  <si>
+    <t>Representation Rate = (Number of Diverse Employees / Total Number of Employees) * 100</t>
+  </si>
+  <si>
+    <t>Turnover Rate</t>
+  </si>
+  <si>
+    <t>Engagement Score</t>
+  </si>
+  <si>
+    <t>Cost-Per-Hire</t>
+  </si>
+  <si>
+    <t>Skills Gap Percentage</t>
+  </si>
+  <si>
+    <t>Representation Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -431,7 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -10573,6 +10592,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -10607,6 +10696,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -10622,6 +10716,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -10637,6 +10736,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -10652,6 +10756,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -10667,6 +10776,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -10682,6 +10796,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B757-4DE7-835C-FC4B00824BF4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
@@ -17216,7 +17335,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5899421-2A96-4876-A042-806EDA47BCE0}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5899421-2A96-4876-A042-806EDA47BCE0}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0"/>
@@ -17308,12 +17427,87 @@
   <dataFields count="1">
     <dataField name="Sum of Cost-Per-Hire:" fld="27" baseField="10" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -17628,10 +17822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009321E2-28B0-4E02-AA82-74D159DDED99}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17679,44 +17873,54 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
+    <row r="15" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
+    <row r="16" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
+    <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>80</v>
+    <row r="18" spans="1:1" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -20006,7 +20210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA70C80-AAB7-4D88-9952-913A68A62F51}">
   <dimension ref="A1:CN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -20333,272 +20537,268 @@
       </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>0.13861386138613863</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>0.22321428571428573</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>0.19130434782608696</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>0.24299065420560748</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>0.35238095238095241</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7">
         <v>0.18103448275862069</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7">
         <v>0.25454545454545452</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7">
         <v>0.19607843137254902</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7">
         <v>1.1267676767676766</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7">
         <v>0.24770642201834864</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <v>0.50971055258143549</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7">
         <v>0.15625</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7">
         <v>0.13402061855670103</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7">
         <v>0.14285714285714285</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7">
         <v>0.19642857142857142</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7">
         <v>0.33673469387755101</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7">
         <v>0.34993499349934992</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7">
         <v>0.22115384615384615</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7">
         <v>0.18947368421052632</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7">
         <v>0.20618556701030927</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7">
         <v>0.20212765957446807</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11">
+      <c r="W7">
         <v>92</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7">
         <v>82</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7">
         <v>78</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7">
         <v>85</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7">
         <v>162</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7">
         <v>78</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7">
         <v>92</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7">
         <v>80</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7">
         <v>414</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7">
         <v>88</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7">
         <v>253</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7">
         <v>94</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7">
         <v>90</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7">
         <v>70</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7">
         <v>85</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7">
         <v>172</v>
       </c>
-      <c r="AM7" s="11">
+      <c r="AM7">
         <v>153</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7">
         <v>88</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7">
         <v>85</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7">
         <v>75</v>
       </c>
-      <c r="AQ7" s="11">
+      <c r="AQ7">
         <v>85</v>
       </c>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11">
+      <c r="AS7">
         <v>30</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7">
         <v>22</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AU7">
         <v>28</v>
       </c>
-      <c r="AV7" s="11">
+      <c r="AV7">
         <v>25</v>
       </c>
-      <c r="AW7" s="11">
+      <c r="AW7">
         <v>43</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AX7">
         <v>35</v>
       </c>
-      <c r="AY7" s="11">
+      <c r="AY7">
         <v>32</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="AZ7">
         <v>28</v>
       </c>
-      <c r="BA7" s="11">
+      <c r="BA7">
         <v>133</v>
       </c>
-      <c r="BB7" s="11">
+      <c r="BB7">
         <v>22</v>
       </c>
-      <c r="BC7" s="11">
+      <c r="BC7">
         <v>59</v>
       </c>
-      <c r="BD7" s="11">
+      <c r="BD7">
         <v>38</v>
       </c>
-      <c r="BE7" s="11">
+      <c r="BE7">
         <v>28</v>
       </c>
-      <c r="BF7" s="11">
+      <c r="BF7">
         <v>15</v>
       </c>
-      <c r="BG7" s="11">
+      <c r="BG7">
         <v>20</v>
       </c>
-      <c r="BH7" s="11">
+      <c r="BH7">
         <v>70</v>
       </c>
-      <c r="BI7" s="11">
+      <c r="BI7">
         <v>52</v>
       </c>
-      <c r="BJ7" s="11">
+      <c r="BJ7">
         <v>22</v>
       </c>
-      <c r="BK7" s="11">
+      <c r="BK7">
         <v>40</v>
       </c>
-      <c r="BL7" s="11">
+      <c r="BL7">
         <v>26</v>
       </c>
-      <c r="BM7" s="11">
+      <c r="BM7">
         <v>18</v>
       </c>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11">
+      <c r="BO7">
         <v>101</v>
       </c>
-      <c r="BP7" s="11">
+      <c r="BP7">
         <v>112</v>
       </c>
-      <c r="BQ7" s="11">
+      <c r="BQ7">
         <v>115</v>
       </c>
-      <c r="BR7" s="11">
+      <c r="BR7">
         <v>107</v>
       </c>
-      <c r="BS7" s="11">
+      <c r="BS7">
         <v>210</v>
       </c>
-      <c r="BT7" s="11">
+      <c r="BT7">
         <v>116</v>
       </c>
-      <c r="BU7" s="11">
+      <c r="BU7">
         <v>110</v>
       </c>
-      <c r="BV7" s="11">
+      <c r="BV7">
         <v>102</v>
       </c>
-      <c r="BW7" s="11">
+      <c r="BW7">
         <v>548</v>
       </c>
-      <c r="BX7" s="11">
+      <c r="BX7">
         <v>109</v>
       </c>
-      <c r="BY7" s="11">
+      <c r="BY7">
         <v>310</v>
       </c>
-      <c r="BZ7" s="11">
+      <c r="BZ7">
         <v>96</v>
       </c>
-      <c r="CA7" s="11">
+      <c r="CA7">
         <v>97</v>
       </c>
-      <c r="CB7" s="11">
+      <c r="CB7">
         <v>105</v>
       </c>
-      <c r="CC7" s="11">
+      <c r="CC7">
         <v>112</v>
       </c>
-      <c r="CD7" s="11">
+      <c r="CD7">
         <v>196</v>
       </c>
-      <c r="CE7" s="11">
+      <c r="CE7">
         <v>200</v>
       </c>
-      <c r="CF7" s="11">
+      <c r="CF7">
         <v>104</v>
       </c>
-      <c r="CG7" s="11">
+      <c r="CG7">
         <v>95</v>
       </c>
-      <c r="CH7" s="11">
+      <c r="CH7">
         <v>97</v>
       </c>
-      <c r="CI7" s="11">
+      <c r="CI7">
         <v>94</v>
       </c>
-      <c r="CJ7" s="11"/>
-      <c r="CK7" s="11">
+      <c r="CK7">
         <v>5.7995138987256212</v>
       </c>
-      <c r="CL7" s="11">
+      <c r="CL7">
         <v>2501</v>
       </c>
-      <c r="CM7" s="11">
+      <c r="CM7">
         <v>786</v>
       </c>
-      <c r="CN7" s="11">
+      <c r="CN7">
         <v>3136</v>
       </c>
     </row>
@@ -20634,7 +20834,7 @@
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2938.9976689976693</v>
       </c>
     </row>
@@ -20642,7 +20842,7 @@
       <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>2938.9976689976693</v>
       </c>
     </row>
@@ -20650,7 +20850,7 @@
       <c r="A6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>3199.1452991452993</v>
       </c>
     </row>
@@ -20658,7 +20858,7 @@
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>3199.1452991452993</v>
       </c>
     </row>
@@ -20666,7 +20866,7 @@
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>6253.712121212121</v>
       </c>
     </row>
@@ -20674,7 +20874,7 @@
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>3177.2474747474744</v>
       </c>
     </row>
@@ -20682,7 +20882,7 @@
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>3076.4646464646466</v>
       </c>
     </row>
@@ -20690,7 +20890,7 @@
       <c r="A11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>3125.757575757576</v>
       </c>
     </row>
@@ -20698,7 +20898,7 @@
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>3125.757575757576</v>
       </c>
     </row>
@@ -20706,7 +20906,7 @@
       <c r="A13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>15517.612665112665</v>
       </c>
     </row>
@@ -20718,18 +20918,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD152BD-2898-4C6B-857B-708E05A922E4}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="23" max="23" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.734375" customWidth="1"/>
+    <col min="30" max="30" width="13.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -20806,19 +21008,22 @@
         <v>84</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20895,8 +21100,8 @@
         <v>1.25E-3</v>
       </c>
       <c r="Y2" s="4">
-        <f>COUNTIF(H2:H31, "&lt;&gt;" &amp; "")/COUNTA(H2:H31)</f>
-        <v>1</v>
+        <f>COUNTIF(H2:H31,"&lt;&gt;"&amp;"") / C2</f>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4">
         <f>B2/C2</f>
@@ -20914,8 +21119,12 @@
         <f>(G2/C2)</f>
         <v>0.2</v>
       </c>
+      <c r="AD2" s="4">
+        <f>Y2/(C2-B2)</f>
+        <v>3.1578947368421052E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20992,8 +21201,8 @@
         <v>4.6296296296296298E-4</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y31" si="2">COUNTIF(H3:H32, "&lt;&gt;" &amp; "")/COUNTA(H3:H32)</f>
-        <v>1</v>
+        <f t="shared" ref="Y3:Y31" si="2">COUNTIF(H3:H32,"&lt;&gt;"&amp;"") / C3</f>
+        <v>0.24166666666666667</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z31" si="3">B3/C3</f>
@@ -21011,8 +21220,12 @@
         <f t="shared" ref="AC3:AC31" si="6">(G3/C3)</f>
         <v>0.25</v>
       </c>
+      <c r="AD3" s="4">
+        <f t="shared" ref="AD3:AD31" si="7">Y3/(C3-B3)</f>
+        <v>2.1386430678466076E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21081,7 +21294,7 @@
         <v>0.94545454545454544</v>
       </c>
       <c r="W4" s="6">
-        <f t="shared" ref="W4:W31" si="7">SUM(P4:P33)/COUNT(P4:P33)</f>
+        <f t="shared" ref="W4:W31" si="8">SUM(P4:P33)/COUNT(P4:P33)</f>
         <v>4.8571428571428568</v>
       </c>
       <c r="X4" s="4">
@@ -21090,7 +21303,7 @@
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.25454545454545452</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="3"/>
@@ -21108,8 +21321,12 @@
         <f t="shared" si="6"/>
         <v>0.22727272727272727</v>
       </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4475524475524473E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21178,7 +21395,7 @@
         <v>0.97142857142857142</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8888888888888893</v>
       </c>
       <c r="X5" s="4">
@@ -21187,7 +21404,7 @@
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="3"/>
@@ -21205,8 +21422,12 @@
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5210084033613443E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21275,7 +21496,7 @@
         <v>0.95789473684210524</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8461538461538458</v>
       </c>
       <c r="X6" s="4">
@@ -21284,7 +21505,7 @@
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.27368421052631581</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="3"/>
@@ -21302,8 +21523,12 @@
         <f t="shared" si="6"/>
         <v>0.18947368421052632</v>
       </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="7"/>
+        <v>3.0075187969924814E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21372,7 +21597,7 @@
         <v>0.93043478260869561</v>
       </c>
       <c r="W7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.96</v>
       </c>
       <c r="X7" s="4">
@@ -21381,7 +21606,7 @@
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="3"/>
@@ -21399,8 +21624,12 @@
         <f t="shared" si="6"/>
         <v>0.19130434782608696</v>
       </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0316944331572532E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21469,7 +21698,7 @@
         <v>0.98</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="X8" s="4">
@@ -21478,7 +21707,7 @@
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="3"/>
@@ -21496,8 +21725,12 @@
         <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4489795918367346E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21566,7 +21799,7 @@
         <v>0.94545454545454544</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9130434782608692</v>
       </c>
       <c r="X9" s="4">
@@ -21575,7 +21808,7 @@
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.20909090909090908</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="3"/>
@@ -21593,8 +21826,12 @@
         <f t="shared" si="6"/>
         <v>0.25454545454545452</v>
       </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0104895104895103E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21663,7 +21900,7 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="W10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9090909090909092</v>
       </c>
       <c r="X10" s="4">
@@ -21672,7 +21909,7 @@
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.20952380952380953</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="3"/>
@@ -21690,8 +21927,12 @@
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0952380952380953E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21760,7 +22001,7 @@
         <v>0.96938775510204078</v>
       </c>
       <c r="W11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8571428571428568</v>
       </c>
       <c r="X11" s="4">
@@ -21769,7 +22010,7 @@
       </c>
       <c r="Y11" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="3"/>
@@ -21787,8 +22028,12 @@
         <f t="shared" si="6"/>
         <v>0.16326530612244897</v>
       </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2556390977443606E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21857,7 +22102,7 @@
         <v>0.95876288659793818</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.95</v>
       </c>
       <c r="X12" s="4">
@@ -21866,7 +22111,7 @@
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.20618556701030927</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="3"/>
@@ -21884,8 +22129,12 @@
         <f t="shared" si="6"/>
         <v>0.20618556701030927</v>
       </c>
+      <c r="AD12" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2170491076377342E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21954,7 +22203,7 @@
         <v>0.9375</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7894736842105265</v>
       </c>
       <c r="X13" s="4">
@@ -21963,7 +22212,7 @@
       </c>
       <c r="Y13" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.16964285714285715</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="3"/>
@@ -21981,8 +22230,12 @@
         <f t="shared" si="6"/>
         <v>0.22321428571428573</v>
       </c>
+      <c r="AD13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6156462585034015E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22051,7 +22304,7 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7777777777777777</v>
       </c>
       <c r="X14" s="4">
@@ -22060,7 +22313,7 @@
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="3"/>
@@ -22078,8 +22331,12 @@
         <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="7"/>
+        <v>1.633986928104575E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22148,7 +22405,7 @@
         <v>0.96116504854368934</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8235294117647056</v>
       </c>
       <c r="X15" s="4">
@@ -22157,7 +22414,7 @@
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="3"/>
@@ -22175,8 +22432,12 @@
         <f t="shared" si="6"/>
         <v>0.17475728155339806</v>
       </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6671570069628323E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22245,7 +22506,7 @@
         <v>0.96875</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.75</v>
       </c>
       <c r="X16" s="4">
@@ -22254,7 +22515,7 @@
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="3"/>
@@ -22272,8 +22533,12 @@
         <f t="shared" si="6"/>
         <v>0.15625</v>
       </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22342,7 +22607,7 @@
         <v>0.9509803921568627</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8666666666666663</v>
       </c>
       <c r="X17" s="4">
@@ -22351,7 +22616,7 @@
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="3"/>
@@ -22369,8 +22634,12 @@
         <f t="shared" si="6"/>
         <v>0.19607843137254902</v>
       </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="7"/>
+        <v>1.5160703456640388E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22439,7 +22708,7 @@
         <v>0.94392523364485981</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7142857142857144</v>
       </c>
       <c r="X18" s="4">
@@ -22448,7 +22717,7 @@
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.13084112149532709</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="3"/>
@@ -22466,8 +22735,12 @@
         <f t="shared" si="6"/>
         <v>0.24299065420560748</v>
       </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="7"/>
+        <v>1.295456648468585E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22536,7 +22809,7 @@
         <v>0.96969696969696972</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6923076923076925</v>
       </c>
       <c r="X19" s="4">
@@ -22545,7 +22818,7 @@
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.13131313131313133</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="3"/>
@@ -22563,8 +22836,12 @@
         <f t="shared" si="6"/>
         <v>0.17171717171717171</v>
       </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3678451178451179E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22633,7 +22910,7 @@
         <v>0.95192307692307687</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.75</v>
       </c>
       <c r="X20" s="4">
@@ -22642,7 +22919,7 @@
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="3"/>
@@ -22660,8 +22937,12 @@
         <f t="shared" si="6"/>
         <v>0.22115384615384615</v>
       </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1655011655011655E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22730,7 +23011,7 @@
         <v>0.98019801980198018</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6363636363636367</v>
       </c>
       <c r="X21" s="4">
@@ -22739,7 +23020,7 @@
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.10891089108910891</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="3"/>
@@ -22757,8 +23038,12 @@
         <f t="shared" si="6"/>
         <v>0.13861386138613863</v>
       </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1001100110011001E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22827,7 +23112,7 @@
         <v>0.95744680851063835</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="X22" s="4">
@@ -22836,7 +23121,7 @@
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.10638297872340426</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="3"/>
@@ -22854,8 +23139,12 @@
         <f t="shared" si="6"/>
         <v>0.20212765957446807</v>
       </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1820330969267139E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22924,7 +23213,7 @@
         <v>0.93103448275862066</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7777777777777777</v>
       </c>
       <c r="X23" s="4">
@@ -22933,7 +23222,7 @@
       </c>
       <c r="Y23" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="3"/>
@@ -22951,8 +23240,12 @@
         <f t="shared" si="6"/>
         <v>0.18103448275862069</v>
       </c>
+      <c r="AD23" s="4">
+        <f t="shared" si="7"/>
+        <v>7.1839080459770114E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23021,7 +23314,7 @@
         <v>0.97938144329896903</v>
       </c>
       <c r="W24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.875</v>
       </c>
       <c r="X24" s="4">
@@ -23030,7 +23323,7 @@
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8.247422680412371E-2</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="3"/>
@@ -23048,8 +23341,12 @@
         <f t="shared" si="6"/>
         <v>0.13402061855670103</v>
       </c>
+      <c r="AD24" s="4">
+        <f t="shared" si="7"/>
+        <v>8.6814975583288112E-4</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23118,7 +23415,7 @@
         <v>0.95412844036697253</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="X25" s="4">
@@ -23127,7 +23424,7 @@
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.4220183486238536E-2</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="3"/>
@@ -23145,8 +23442,12 @@
         <f t="shared" si="6"/>
         <v>0.24770642201834864</v>
       </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="7"/>
+        <v>6.1750176429075515E-4</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23215,7 +23516,7 @@
         <v>0.9464285714285714</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.333333333333333</v>
       </c>
       <c r="X26" s="4">
@@ -23224,7 +23525,7 @@
       </c>
       <c r="Y26" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="3"/>
@@ -23242,8 +23543,12 @@
         <f t="shared" si="6"/>
         <v>0.19642857142857142</v>
       </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0539083557951474E-4</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23312,7 +23617,7 @@
         <v>0.96039603960396036</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="X27" s="4">
@@ -23321,7 +23626,7 @@
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.9504950495049507E-2</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="3"/>
@@ -23339,8 +23644,12 @@
         <f t="shared" si="6"/>
         <v>0.17821782178217821</v>
       </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="7"/>
+        <v>5.103603143819537E-4</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23409,7 +23718,7 @@
         <v>0.97142857142857142</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="X28" s="4">
@@ -23418,7 +23727,7 @@
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.8095238095238099E-2</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="3"/>
@@ -23436,8 +23745,12 @@
         <f t="shared" si="6"/>
         <v>0.15238095238095239</v>
       </c>
+      <c r="AD28" s="4">
+        <f t="shared" si="7"/>
+        <v>3.7348272642390292E-4</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23506,7 +23819,7 @@
         <v>0.9363636363636364</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.666666666666667</v>
       </c>
       <c r="X29" s="4">
@@ -23515,7 +23828,7 @@
       </c>
       <c r="Y29" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.7272727272727271E-2</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="3"/>
@@ -23533,8 +23846,12 @@
         <f t="shared" si="6"/>
         <v>0.22727272727272727</v>
       </c>
+      <c r="AD29" s="4">
+        <f t="shared" si="7"/>
+        <v>2.64783759929391E-4</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23603,7 +23920,7 @@
         <v>0.94392523364485981</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="X30" s="4">
@@ -23612,7 +23929,7 @@
       </c>
       <c r="Y30" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.8691588785046728E-2</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="3"/>
@@ -23630,8 +23947,12 @@
         <f t="shared" si="6"/>
         <v>0.21495327102803738</v>
       </c>
+      <c r="AD30" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8506523549551216E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23700,7 +24021,7 @@
         <v>0.96938775510204078</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="X31" s="4">
@@ -23709,7 +24030,7 @@
       </c>
       <c r="Y31" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.020408163265306E-2</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="3"/>
@@ -23726,6 +24047,10 @@
       <c r="AC31" s="4">
         <f t="shared" si="6"/>
         <v>0.17346938775510204</v>
+      </c>
+      <c r="AD31" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0741138560687432E-4</v>
       </c>
     </row>
   </sheetData>

--- a/HR-formula-analytics-in-action.xlsx
+++ b/HR-formula-analytics-in-action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SAC_AI_Builds\HR-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0DF06-6A36-4367-BFB5-40B4FCBDD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81656BC3-2815-4D8B-8C23-516A39C4EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="882" windowWidth="15168" windowHeight="10572" tabRatio="796" firstSheet="1" activeTab="6" xr2:uid="{FCFE19A7-F5E8-4923-99F6-F1CC657F2CA2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="796" firstSheet="1" activeTab="7" xr2:uid="{FCFE19A7-F5E8-4923-99F6-F1CC657F2CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="Example-Data" sheetId="2" r:id="rId4"/>
     <sheet name="Tenure vs. Skill Gap" sheetId="8" r:id="rId5"/>
     <sheet name="Cost-per-Hire" sheetId="9" r:id="rId6"/>
-    <sheet name="Example-Engineered-Data" sheetId="7" r:id="rId7"/>
-    <sheet name="scrap" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
+    <sheet name="Example-Engineered-Data" sheetId="7" r:id="rId9"/>
+    <sheet name="scrap" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="9" r:id="rId13"/>
+    <pivotCache cacheId="16" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="116">
   <si>
     <t>1. Turnover Rate:</t>
   </si>
@@ -367,6 +371,24 @@
   <si>
     <t>Representation Rate</t>
   </si>
+  <si>
+    <t>Sum of Cost-Per-Hire</t>
+  </si>
+  <si>
+    <t>Sum of Representation Rate</t>
+  </si>
+  <si>
+    <t>Sum of Skills Gap Percentage</t>
+  </si>
+  <si>
+    <t>Sum of Engagement Score</t>
+  </si>
+  <si>
+    <t>Sum of Turnover Rate</t>
+  </si>
+  <si>
+    <t>Sum of Engaged Employees</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -452,6 +474,13 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11052,6 +11081,3227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[HR-formula-analytics-in-action.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Cost-Per-Hire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484.61538461538464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>469.23076923076923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>491.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>476.92307692307691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>463.63636363636363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>544.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>544.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>562.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>522.22222222222217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>490.90909090909093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>555.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>533.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>509.09090909090907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Representation Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.1386430678466076E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1839080459770114E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6156462585034015E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.295456648468585E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4489795918367346E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7348272642390292E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.103603143819537E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5160703456640388E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0316944331572532E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2170491076377342E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1578947368421052E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1820330969267139E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1001100110011001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2556390977443606E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0741138560687432E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0075187969924814E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0539083557951474E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0104895104895103E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.64783759929391E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3678451178451179E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6814975583288112E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.633986928104575E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4475524475524473E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6671570069628323E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5210084033613443E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1750176429075515E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8506523549551216E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1655011655011655E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0952380952380953E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Skills Gap Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18103448275862069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22321428571428573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24299065420560748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15238095238095239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17821782178217821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19607843137254902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19130434782608696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20618556701030927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20212765957446807</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13861386138613863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16326530612244897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17346938775510204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19642857142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25454545454545452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17171717171717171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13402061855670103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17475728155339806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24770642201834864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21495327102803738</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.22115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Engagement Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8035714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74766355140186913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83809523809523812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78217821782178221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74226804123711343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75531914893617025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76237623762376239</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76530612244897955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75510204081632648</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73684210526315785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74747474747474751</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78350515463917525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76851851851851849</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75728155339805825</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77064220183486243</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.81730769230769229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83809523809523812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Turnover Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.8333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8965517241379309E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6074766355140186E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9603960396039604E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9019607843137254E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9565217391304349E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1237113402061855E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2553191489361701E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0612244897959183E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0612244897959183E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2105263157894736E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3571428571428568E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4545454545454543E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.363636363636363E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0618556701030927E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.4545454545454543E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8834951456310676E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5871559633027525E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6074766355140186E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.807692307692308E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Engaged Employees</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="30"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Analyst</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Manager</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Developer</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Engineer</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Specialist</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F34A-4DDB-BF0D-99DB975CB4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1116690735"/>
+        <c:axId val="934758863"/>
+        <c:axId val="871515551"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1116690735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934758863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934758863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116690735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="871515551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934758863"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[HR-formula-analytics-in-action.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Representation Rate by Dept by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$4:$A$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>LA</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>NY</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IT</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marketing</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>(blank)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.1386430678466076E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.295456648468585E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1839080459770114E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4489795918367346E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6156462585034015E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7348272642390292E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.103603143819537E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2170491076377342E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5160703456640388E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1578947368421052E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0316944331572532E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1820330969267139E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1105995214906106E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8756685528253624E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5204228576737515E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1393777636840895E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4752565034519922E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2396671428929491E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6671570069628323E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8506523549551216E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5210084033613443E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1655011655011655E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1750176429075515E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0952380952380953E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FDB-4BA3-8703-55A1BD035547}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1116684975"/>
+        <c:axId val="934731583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1116684975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934731583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934731583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116684975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11093,6 +14343,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12161,6 +15451,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12223,6 +16029,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC83F5E9-4ED5-D96E-CC38-28D167928449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>935355</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678ED9FE-0829-1241-6C30-A43E0D45484D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584834</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274319</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAE8A34-6869-650F-30FD-0125A3EDC1BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12562,6 +16450,313 @@
     </cacheField>
     <cacheField name="Skills Gap Percentage:" numFmtId="10">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12" maxValue="0.25454545454545452"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Scott Cole" refreshedDate="45250.755230092589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{81742EC4-1B03-488C-BE08-79152977C6E3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AD31" sheet="Example-Engineered-Data"/>
+  </cacheSource>
+  <cacheFields count="30">
+    <cacheField name="Employee ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Employees Left" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Avg Employees" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="94" maxValue="120"/>
+    </cacheField>
+    <cacheField name="Engaged Employees" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="95"/>
+    </cacheField>
+    <cacheField name="Recruitment Costs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4500" maxValue="6300"/>
+    </cacheField>
+    <cacheField name="Hires" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="13"/>
+    </cacheField>
+    <cacheField name="Employees Lacking Skills" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="3">
+        <s v="NY"/>
+        <s v="LA"/>
+        <s v="SF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Job Title" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Manager"/>
+        <s v="Analyst"/>
+        <s v="Engineer"/>
+        <s v="Specialist"/>
+        <s v="Developer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="4">
+        <s v="HR"/>
+        <s v="Finance"/>
+        <s v="IT"/>
+        <s v="Marketing"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Store Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Business Unit" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Division" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="45"/>
+    </cacheField>
+    <cacheField name="Length of Service" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Absent Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="14"/>
+    </cacheField>
+    <cacheField name="Performance Rating" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Education Level" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Training Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Satisfaction Score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="94"/>
+    </cacheField>
+    <cacheField name="Retention Rate:" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.93043478260869561" maxValue="0.98019801980198018"/>
+    </cacheField>
+    <cacheField name="Average Employee Tenure" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Absenteeism Rate" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.6296296296296298E-4" maxValue="2.0045819014891178E-3"/>
+    </cacheField>
+    <cacheField name="Diversity Index" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.020408163265306E-2" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="Turnover Rate" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9801980198019802E-2" maxValue="6.9565217391304349E-2"/>
+    </cacheField>
+    <cacheField name="Engagement Score" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.7142857142857143" maxValue="0.8529411764705882"/>
+    </cacheField>
+    <cacheField name="Cost-Per-Hire" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="463.63636363636363" maxValue="600"/>
+    </cacheField>
+    <cacheField name="Skills Gap Percentage" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12" maxValue="0.25454545454545452"/>
+    </cacheField>
+    <cacheField name="Representation Rate" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0741138560687432E-4" maxValue="3.1578947368421052E-3"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Scott Cole" refreshedDate="45250.757724768519" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{9BD163E3-747F-4BDD-992F-836A5E888DB9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AD1048576" sheet="Example-Engineered-Data"/>
+  </cacheSource>
+  <cacheFields count="30">
+    <cacheField name="Employee ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30" count="31">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Employees Left" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Avg Employees" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="94" maxValue="120"/>
+    </cacheField>
+    <cacheField name="Engaged Employees" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="70" maxValue="95"/>
+    </cacheField>
+    <cacheField name="Recruitment Costs" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4500" maxValue="6300"/>
+    </cacheField>
+    <cacheField name="Hires" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="13"/>
+    </cacheField>
+    <cacheField name="Employees Lacking Skills" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="M"/>
+        <s v="F"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Job Title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="HR"/>
+        <s v="Finance"/>
+        <s v="IT"/>
+        <s v="Marketing"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Store Location" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="NY"/>
+        <s v="LA"/>
+        <s v="SF"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Business Unit" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Division" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="27" maxValue="45"/>
+    </cacheField>
+    <cacheField name="Length of Service" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Absent Hours" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="14"/>
+    </cacheField>
+    <cacheField name="Performance Rating" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Education Level" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Training Hours" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="40"/>
+    </cacheField>
+    <cacheField name="Satisfaction Score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="70" maxValue="94"/>
+    </cacheField>
+    <cacheField name="Retention Rate:" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.93043478260869561" maxValue="0.98019801980198018"/>
+    </cacheField>
+    <cacheField name="Average Employee Tenure" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Absenteeism Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.6296296296296298E-4" maxValue="2.0045819014891178E-3"/>
+    </cacheField>
+    <cacheField name="Diversity Index" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.020408163265306E-2" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="Turnover Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.9801980198019802E-2" maxValue="6.9565217391304349E-2"/>
+    </cacheField>
+    <cacheField name="Engagement Score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.7142857142857143" maxValue="0.8529411764705882"/>
+    </cacheField>
+    <cacheField name="Cost-Per-Hire" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="463.63636363636363" maxValue="600"/>
+    </cacheField>
+    <cacheField name="Skills Gap Percentage" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.12" maxValue="0.25454545454545452"/>
+    </cacheField>
+    <cacheField name="Representation Rate" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0741138560687432E-4" maxValue="3.1578947368421052E-3" count="31">
+        <n v="3.1578947368421052E-3"/>
+        <n v="2.1386430678466076E-3"/>
+        <n v="2.4475524475524473E-3"/>
+        <n v="2.5210084033613443E-3"/>
+        <n v="3.0075187969924814E-3"/>
+        <n v="2.0316944331572532E-3"/>
+        <n v="2.4489795918367346E-3"/>
+        <n v="2.0104895104895103E-3"/>
+        <n v="2.0952380952380953E-3"/>
+        <n v="2.2556390977443606E-3"/>
+        <n v="2.2170491076377342E-3"/>
+        <n v="1.6156462585034015E-3"/>
+        <n v="1.633986928104575E-3"/>
+        <n v="1.6671570069628323E-3"/>
+        <n v="1.7921146953405018E-3"/>
+        <n v="1.5160703456640388E-3"/>
+        <n v="1.295456648468585E-3"/>
+        <n v="1.3678451178451179E-3"/>
+        <n v="1.1655011655011655E-3"/>
+        <n v="1.1001100110011001E-3"/>
+        <n v="1.1820330969267139E-3"/>
+        <n v="7.1839080459770114E-4"/>
+        <n v="8.6814975583288112E-4"/>
+        <n v="6.1750176429075515E-4"/>
+        <n v="5.0539083557951474E-4"/>
+        <n v="5.103603143819537E-4"/>
+        <n v="3.7348272642390292E-4"/>
+        <n v="2.64783759929391E-4"/>
+        <n v="1.8506523549551216E-4"/>
+        <n v="1.0741138560687432E-4"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -14473,6 +18668,1968 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="100"/>
+    <n v="80"/>
+    <n v="5000"/>
+    <n v="10"/>
+    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Bachelor's"/>
+    <n v="30"/>
+    <n v="75"/>
+    <n v="0.95"/>
+    <n v="4.8"/>
+    <n v="1.25E-3"/>
+    <n v="0.3"/>
+    <n v="0.05"/>
+    <n v="0.8"/>
+    <n v="500"/>
+    <n v="0.2"/>
+    <n v="3.1578947368421052E-3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="120"/>
+    <n v="90"/>
+    <n v="6000"/>
+    <n v="12"/>
+    <n v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="30"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="Master's"/>
+    <n v="20"/>
+    <n v="80"/>
+    <n v="0.94166666666666665"/>
+    <n v="4.7931034482758621"/>
+    <n v="4.6296296296296298E-4"/>
+    <n v="0.24166666666666667"/>
+    <n v="5.8333333333333334E-2"/>
+    <n v="0.75"/>
+    <n v="500"/>
+    <n v="0.25"/>
+    <n v="2.1386430678466076E-3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="110"/>
+    <n v="85"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="25"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="25"/>
+    <n v="90"/>
+    <n v="0.94545454545454544"/>
+    <n v="4.8571428571428568"/>
+    <n v="8.5561497326203204E-4"/>
+    <n v="0.25454545454545452"/>
+    <n v="5.4545454545454543E-2"/>
+    <n v="0.77272727272727271"/>
+    <n v="500"/>
+    <n v="0.22727272727272727"/>
+    <n v="2.4475524475524473E-3"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="105"/>
+    <n v="75"/>
+    <n v="4800"/>
+    <n v="9"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="40"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="15"/>
+    <n v="70"/>
+    <n v="0.97142857142857142"/>
+    <n v="4.8888888888888893"/>
+    <n v="1.5238095238095239E-3"/>
+    <n v="0.25714285714285712"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="0.7142857142857143"/>
+    <n v="533.33333333333337"/>
+    <n v="0.14285714285714285"/>
+    <n v="2.5210084033613443E-3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="95"/>
+    <n v="70"/>
+    <n v="4500"/>
+    <n v="8"/>
+    <n v="18"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="LA"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="3"/>
+    <s v="PhD"/>
+    <n v="40"/>
+    <n v="85"/>
+    <n v="0.95789473684210524"/>
+    <n v="4.8461538461538458"/>
+    <n v="9.0225563909774437E-4"/>
+    <n v="0.27368421052631581"/>
+    <n v="4.2105263157894736E-2"/>
+    <n v="0.73684210526315785"/>
+    <n v="562.5"/>
+    <n v="0.18947368421052632"/>
+    <n v="3.0075187969924814E-3"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="115"/>
+    <n v="95"/>
+    <n v="6200"/>
+    <n v="13"/>
+    <n v="22"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="32"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="28"/>
+    <n v="78"/>
+    <n v="0.93043478260869561"/>
+    <n v="4.96"/>
+    <n v="8.2379862700228835E-4"/>
+    <n v="0.21739130434782608"/>
+    <n v="6.9565217391304349E-2"/>
+    <n v="0.82608695652173914"/>
+    <n v="476.92307692307691"/>
+    <n v="0.19130434782608696"/>
+    <n v="2.0316944331572532E-3"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="100"/>
+    <n v="78"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="11"/>
+    <n v="5"/>
+    <s v="Bachelor's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.98"/>
+    <n v="5"/>
+    <n v="1.4102564102564104E-3"/>
+    <n v="0.24"/>
+    <n v="0.02"/>
+    <n v="0.78"/>
+    <n v="520"/>
+    <n v="0.12"/>
+    <n v="2.4489795918367346E-3"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="5400"/>
+    <n v="11"/>
+    <n v="28"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="LA"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="36"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="High School"/>
+    <n v="32"/>
+    <n v="92"/>
+    <n v="0.94545454545454544"/>
+    <n v="4.9130434782608692"/>
+    <n v="7.7605321507760532E-4"/>
+    <n v="0.20909090909090908"/>
+    <n v="5.4545454545454543E-2"/>
+    <n v="0.74545454545454548"/>
+    <n v="490.90909090909093"/>
+    <n v="0.25454545454545452"/>
+    <n v="2.0104895104895103E-3"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="105"/>
+    <n v="88"/>
+    <n v="5800"/>
+    <n v="12"/>
+    <n v="21"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="SF"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="33"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="18"/>
+    <n v="80"/>
+    <n v="0.95238095238095233"/>
+    <n v="4.9090909090909092"/>
+    <n v="1.0822510822510823E-3"/>
+    <n v="0.20952380952380953"/>
+    <n v="4.7619047619047616E-2"/>
+    <n v="0.83809523809523812"/>
+    <n v="483.33333333333331"/>
+    <n v="0.2"/>
+    <n v="2.0952380952380953E-3"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="98"/>
+    <n v="75"/>
+    <n v="4900"/>
+    <n v="9"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="NY"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="35"/>
+    <n v="86"/>
+    <n v="0.96938775510204078"/>
+    <n v="4.8571428571428568"/>
+    <n v="1.0884353741496598E-3"/>
+    <n v="0.21428571428571427"/>
+    <n v="3.0612244897959183E-2"/>
+    <n v="0.76530612244897955"/>
+    <n v="544.44444444444446"/>
+    <n v="0.16326530612244897"/>
+    <n v="2.2556390977443606E-3"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="97"/>
+    <n v="72"/>
+    <n v="4600"/>
+    <n v="8"/>
+    <n v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="42"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="26"/>
+    <n v="75"/>
+    <n v="0.95876288659793818"/>
+    <n v="4.95"/>
+    <n v="2.0045819014891178E-3"/>
+    <n v="0.20618556701030927"/>
+    <n v="4.1237113402061855E-2"/>
+    <n v="0.74226804123711343"/>
+    <n v="575"/>
+    <n v="0.20618556701030927"/>
+    <n v="2.2170491076377342E-3"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="112"/>
+    <n v="90"/>
+    <n v="6100"/>
+    <n v="13"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="22"/>
+    <n v="82"/>
+    <n v="0.9375"/>
+    <n v="4.7894736842105265"/>
+    <n v="8.9285714285714283E-4"/>
+    <n v="0.16964285714285715"/>
+    <n v="6.25E-2"/>
+    <n v="0.8035714285714286"/>
+    <n v="469.23076923076923"/>
+    <n v="0.22321428571428573"/>
+    <n v="1.6156462585034015E-3"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="6"/>
+    <n v="108"/>
+    <n v="83"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="34"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="30"/>
+    <n v="89"/>
+    <n v="0.94444444444444442"/>
+    <n v="4.7777777777777777"/>
+    <n v="7.8090138331102189E-4"/>
+    <n v="0.16666666666666666"/>
+    <n v="5.5555555555555552E-2"/>
+    <n v="0.76851851851851849"/>
+    <n v="500"/>
+    <n v="0.22222222222222221"/>
+    <n v="1.633986928104575E-3"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="4"/>
+    <n v="103"/>
+    <n v="78"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="37"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="15"/>
+    <n v="77"/>
+    <n v="0.96116504854368934"/>
+    <n v="4.8235294117647056"/>
+    <n v="1.3691809808314662E-3"/>
+    <n v="0.1650485436893204"/>
+    <n v="3.8834951456310676E-2"/>
+    <n v="0.75728155339805825"/>
+    <n v="520"/>
+    <n v="0.17475728155339806"/>
+    <n v="1.6671570069628323E-3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="96"/>
+    <n v="72"/>
+    <n v="4700"/>
+    <n v="9"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="38"/>
+    <n v="94"/>
+    <n v="0.96875"/>
+    <n v="4.75"/>
+    <n v="1.4467592592592592E-3"/>
+    <n v="0.16666666666666666"/>
+    <n v="3.125E-2"/>
+    <n v="0.75"/>
+    <n v="522.22222222222217"/>
+    <n v="0.15625"/>
+    <n v="1.7921146953405018E-3"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="102"/>
+    <n v="87"/>
+    <n v="5900"/>
+    <n v="12"/>
+    <n v="20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="39"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="28"/>
+    <n v="80"/>
+    <n v="0.9509803921568627"/>
+    <n v="4.8666666666666663"/>
+    <n v="1.3522650439486139E-3"/>
+    <n v="0.14705882352941177"/>
+    <n v="4.9019607843137254E-2"/>
+    <n v="0.8529411764705882"/>
+    <n v="491.66666666666669"/>
+    <n v="0.19607843137254902"/>
+    <n v="1.5160703456640388E-3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="6"/>
+    <n v="107"/>
+    <n v="80"/>
+    <n v="5300"/>
+    <n v="11"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="41"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="25"/>
+    <n v="85"/>
+    <n v="0.94392523364485981"/>
+    <n v="4.7142857142857144"/>
+    <n v="9.3457943925233649E-4"/>
+    <n v="0.13084112149532709"/>
+    <n v="5.6074766355140186E-2"/>
+    <n v="0.74766355140186913"/>
+    <n v="481.81818181818181"/>
+    <n v="0.24299065420560748"/>
+    <n v="1.295456648468585E-3"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="99"/>
+    <n v="74"/>
+    <n v="5000"/>
+    <n v="9"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="20"/>
+    <n v="78"/>
+    <n v="0.96969696969696972"/>
+    <n v="4.6923076923076925"/>
+    <n v="1.2285012285012285E-3"/>
+    <n v="0.13131313131313133"/>
+    <n v="3.0303030303030304E-2"/>
+    <n v="0.74747474747474751"/>
+    <n v="555.55555555555554"/>
+    <n v="0.17171717171717171"/>
+    <n v="1.3678451178451179E-3"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="104"/>
+    <n v="85"/>
+    <n v="5600"/>
+    <n v="10"/>
+    <n v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="32"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.95192307692307687"/>
+    <n v="4.75"/>
+    <n v="1.2443438914027148E-3"/>
+    <n v="0.11538461538461539"/>
+    <n v="4.807692307692308E-2"/>
+    <n v="0.81730769230769229"/>
+    <n v="560"/>
+    <n v="0.22115384615384615"/>
+    <n v="1.1655011655011655E-3"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="101"/>
+    <n v="77"/>
+    <n v="5100"/>
+    <n v="11"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="LA"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="36"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="30"/>
+    <n v="92"/>
+    <n v="0.98019801980198018"/>
+    <n v="4.6363636363636367"/>
+    <n v="1.0286742960010286E-3"/>
+    <n v="0.10891089108910891"/>
+    <n v="1.9801980198019802E-2"/>
+    <n v="0.76237623762376239"/>
+    <n v="463.63636363636363"/>
+    <n v="0.13861386138613863"/>
+    <n v="1.1001100110011001E-3"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="71"/>
+    <n v="4800"/>
+    <n v="8"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="18"/>
+    <n v="85"/>
+    <n v="0.95744680851063835"/>
+    <n v="4.8"/>
+    <n v="1.4983518130056938E-3"/>
+    <n v="0.10638297872340426"/>
+    <n v="4.2553191489361701E-2"/>
+    <n v="0.75531914893617025"/>
+    <n v="600"/>
+    <n v="0.20212765957446807"/>
+    <n v="1.1820330969267139E-3"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="8"/>
+    <n v="116"/>
+    <n v="92"/>
+    <n v="6300"/>
+    <n v="13"/>
+    <n v="21"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="35"/>
+    <n v="78"/>
+    <n v="0.93103448275862066"/>
+    <n v="4.7777777777777777"/>
+    <n v="6.5592203898050976E-4"/>
+    <n v="7.7586206896551727E-2"/>
+    <n v="6.8965517241379309E-2"/>
+    <n v="0.7931034482758621"/>
+    <n v="484.61538461538464"/>
+    <n v="0.18103448275862069"/>
+    <n v="7.1839080459770114E-4"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="97"/>
+    <n v="76"/>
+    <n v="5300"/>
+    <n v="10"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="LA"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="High School"/>
+    <n v="28"/>
+    <n v="90"/>
+    <n v="0.97938144329896903"/>
+    <n v="4.875"/>
+    <n v="1.6277807921866521E-3"/>
+    <n v="8.247422680412371E-2"/>
+    <n v="2.0618556701030927E-2"/>
+    <n v="0.78350515463917525"/>
+    <n v="530"/>
+    <n v="0.13402061855670103"/>
+    <n v="8.6814975583288112E-4"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="109"/>
+    <n v="84"/>
+    <n v="5600"/>
+    <n v="11"/>
+    <n v="27"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="SF"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="30"/>
+    <n v="6"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.95412844036697253"/>
+    <n v="4.5714285714285712"/>
+    <n v="9.8296199213630396E-4"/>
+    <n v="6.4220183486238536E-2"/>
+    <n v="4.5871559633027525E-2"/>
+    <n v="0.77064220183486243"/>
+    <n v="509.09090909090907"/>
+    <n v="0.24770642201834864"/>
+    <n v="6.1750176429075515E-4"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="6"/>
+    <n v="112"/>
+    <n v="80"/>
+    <n v="5400"/>
+    <n v="10"/>
+    <n v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="NY"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="34"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="20"/>
+    <n v="85"/>
+    <n v="0.9464285714285714"/>
+    <n v="4.333333333333333"/>
+    <n v="8.9285714285714283E-4"/>
+    <n v="5.3571428571428568E-2"/>
+    <n v="5.3571428571428568E-2"/>
+    <n v="0.7142857142857143"/>
+    <n v="540"/>
+    <n v="0.19642857142857142"/>
+    <n v="5.0539083557951474E-4"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="4"/>
+    <n v="101"/>
+    <n v="79"/>
+    <n v="5000"/>
+    <n v="9"/>
+    <n v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="11"/>
+    <n v="3"/>
+    <s v="Master's"/>
+    <n v="32"/>
+    <n v="75"/>
+    <n v="0.96039603960396036"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.3786188745456825E-3"/>
+    <n v="4.9504950495049507E-2"/>
+    <n v="3.9603960396039604E-2"/>
+    <n v="0.78217821782178221"/>
+    <n v="555.55555555555554"/>
+    <n v="0.17821782178217821"/>
+    <n v="5.103603143819537E-4"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="105"/>
+    <n v="88"/>
+    <n v="5800"/>
+    <n v="12"/>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Bachelor's"/>
+    <n v="25"/>
+    <n v="82"/>
+    <n v="0.97142857142857142"/>
+    <n v="4.5"/>
+    <n v="1.0822510822510823E-3"/>
+    <n v="3.8095238095238099E-2"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="0.83809523809523812"/>
+    <n v="483.33333333333331"/>
+    <n v="0.15238095238095239"/>
+    <n v="3.7348272642390292E-4"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="7"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="NY"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="31"/>
+    <n v="6"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="28"/>
+    <n v="80"/>
+    <n v="0.9363636363636364"/>
+    <n v="4.666666666666667"/>
+    <n v="9.9778270509977827E-4"/>
+    <n v="2.7272727272727271E-2"/>
+    <n v="6.363636363636363E-2"/>
+    <n v="0.74545454545454548"/>
+    <n v="500"/>
+    <n v="0.22727272727272727"/>
+    <n v="2.64783759929391E-4"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="6"/>
+    <n v="107"/>
+    <n v="81"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="23"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="LA"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.94392523364485981"/>
+    <n v="4"/>
+    <n v="9.2304142148378905E-4"/>
+    <n v="1.8691588785046728E-2"/>
+    <n v="5.6074766355140186E-2"/>
+    <n v="0.7570093457943925"/>
+    <n v="520"/>
+    <n v="0.21495327102803738"/>
+    <n v="1.8506523549551216E-4"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="3"/>
+    <n v="98"/>
+    <n v="74"/>
+    <n v="4900"/>
+    <n v="9"/>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="SF"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="37"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="PhD"/>
+    <n v="35"/>
+    <n v="86"/>
+    <n v="0.96938775510204078"/>
+    <n v="3"/>
+    <n v="9.6525096525096527E-4"/>
+    <n v="1.020408163265306E-2"/>
+    <n v="3.0612244897959183E-2"/>
+    <n v="0.75510204081632648"/>
+    <n v="544.44444444444446"/>
+    <n v="0.17346938775510204"/>
+    <n v="1.0741138560687432E-4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="100"/>
+    <n v="80"/>
+    <n v="5000"/>
+    <n v="10"/>
+    <n v="20"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Bachelor's"/>
+    <n v="30"/>
+    <n v="75"/>
+    <n v="0.95"/>
+    <n v="4.8"/>
+    <n v="1.25E-3"/>
+    <n v="0.3"/>
+    <n v="0.05"/>
+    <n v="0.8"/>
+    <n v="500"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="120"/>
+    <n v="90"/>
+    <n v="6000"/>
+    <n v="12"/>
+    <n v="30"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="30"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <s v="Master's"/>
+    <n v="20"/>
+    <n v="80"/>
+    <n v="0.94166666666666665"/>
+    <n v="4.7931034482758621"/>
+    <n v="4.6296296296296298E-4"/>
+    <n v="0.24166666666666667"/>
+    <n v="5.8333333333333334E-2"/>
+    <n v="0.75"/>
+    <n v="500"/>
+    <n v="0.25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="110"/>
+    <n v="85"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="25"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="25"/>
+    <n v="90"/>
+    <n v="0.94545454545454544"/>
+    <n v="4.8571428571428568"/>
+    <n v="8.5561497326203204E-4"/>
+    <n v="0.25454545454545452"/>
+    <n v="5.4545454545454543E-2"/>
+    <n v="0.77272727272727271"/>
+    <n v="500"/>
+    <n v="0.22727272727272727"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="105"/>
+    <n v="75"/>
+    <n v="4800"/>
+    <n v="9"/>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="40"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="15"/>
+    <n v="70"/>
+    <n v="0.97142857142857142"/>
+    <n v="4.8888888888888893"/>
+    <n v="1.5238095238095239E-3"/>
+    <n v="0.25714285714285712"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="0.7142857142857143"/>
+    <n v="533.33333333333337"/>
+    <n v="0.14285714285714285"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="95"/>
+    <n v="70"/>
+    <n v="4500"/>
+    <n v="8"/>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="3"/>
+    <s v="PhD"/>
+    <n v="40"/>
+    <n v="85"/>
+    <n v="0.95789473684210524"/>
+    <n v="4.8461538461538458"/>
+    <n v="9.0225563909774437E-4"/>
+    <n v="0.27368421052631581"/>
+    <n v="4.2105263157894736E-2"/>
+    <n v="0.73684210526315785"/>
+    <n v="562.5"/>
+    <n v="0.18947368421052632"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="115"/>
+    <n v="95"/>
+    <n v="6200"/>
+    <n v="13"/>
+    <n v="22"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="32"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="28"/>
+    <n v="78"/>
+    <n v="0.93043478260869561"/>
+    <n v="4.96"/>
+    <n v="8.2379862700228835E-4"/>
+    <n v="0.21739130434782608"/>
+    <n v="6.9565217391304349E-2"/>
+    <n v="0.82608695652173914"/>
+    <n v="476.92307692307691"/>
+    <n v="0.19130434782608696"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="100"/>
+    <n v="78"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="12"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="11"/>
+    <n v="5"/>
+    <s v="Bachelor's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.98"/>
+    <n v="5"/>
+    <n v="1.4102564102564104E-3"/>
+    <n v="0.24"/>
+    <n v="0.02"/>
+    <n v="0.78"/>
+    <n v="520"/>
+    <n v="0.12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="5400"/>
+    <n v="11"/>
+    <n v="28"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="36"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="High School"/>
+    <n v="32"/>
+    <n v="92"/>
+    <n v="0.94545454545454544"/>
+    <n v="4.9130434782608692"/>
+    <n v="7.7605321507760532E-4"/>
+    <n v="0.20909090909090908"/>
+    <n v="5.4545454545454543E-2"/>
+    <n v="0.74545454545454548"/>
+    <n v="490.90909090909093"/>
+    <n v="0.25454545454545452"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="105"/>
+    <n v="88"/>
+    <n v="5800"/>
+    <n v="12"/>
+    <n v="21"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="33"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="18"/>
+    <n v="80"/>
+    <n v="0.95238095238095233"/>
+    <n v="4.9090909090909092"/>
+    <n v="1.0822510822510823E-3"/>
+    <n v="0.20952380952380953"/>
+    <n v="4.7619047619047616E-2"/>
+    <n v="0.83809523809523812"/>
+    <n v="483.33333333333331"/>
+    <n v="0.2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="98"/>
+    <n v="75"/>
+    <n v="4900"/>
+    <n v="9"/>
+    <n v="16"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="35"/>
+    <n v="86"/>
+    <n v="0.96938775510204078"/>
+    <n v="4.8571428571428568"/>
+    <n v="1.0884353741496598E-3"/>
+    <n v="0.21428571428571427"/>
+    <n v="3.0612244897959183E-2"/>
+    <n v="0.76530612244897955"/>
+    <n v="544.44444444444446"/>
+    <n v="0.16326530612244897"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4"/>
+    <n v="97"/>
+    <n v="72"/>
+    <n v="4600"/>
+    <n v="8"/>
+    <n v="20"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="42"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="26"/>
+    <n v="75"/>
+    <n v="0.95876288659793818"/>
+    <n v="4.95"/>
+    <n v="2.0045819014891178E-3"/>
+    <n v="0.20618556701030927"/>
+    <n v="4.1237113402061855E-2"/>
+    <n v="0.74226804123711343"/>
+    <n v="575"/>
+    <n v="0.20618556701030927"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="7"/>
+    <n v="112"/>
+    <n v="90"/>
+    <n v="6100"/>
+    <n v="13"/>
+    <n v="25"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="22"/>
+    <n v="82"/>
+    <n v="0.9375"/>
+    <n v="4.7894736842105265"/>
+    <n v="8.9285714285714283E-4"/>
+    <n v="0.16964285714285715"/>
+    <n v="6.25E-2"/>
+    <n v="0.8035714285714286"/>
+    <n v="469.23076923076923"/>
+    <n v="0.22321428571428573"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="6"/>
+    <n v="108"/>
+    <n v="83"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="24"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="34"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="30"/>
+    <n v="89"/>
+    <n v="0.94444444444444442"/>
+    <n v="4.7777777777777777"/>
+    <n v="7.8090138331102189E-4"/>
+    <n v="0.16666666666666666"/>
+    <n v="5.5555555555555552E-2"/>
+    <n v="0.76851851851851849"/>
+    <n v="500"/>
+    <n v="0.22222222222222221"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="4"/>
+    <n v="103"/>
+    <n v="78"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="18"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="37"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="15"/>
+    <n v="77"/>
+    <n v="0.96116504854368934"/>
+    <n v="4.8235294117647056"/>
+    <n v="1.3691809808314662E-3"/>
+    <n v="0.1650485436893204"/>
+    <n v="3.8834951456310676E-2"/>
+    <n v="0.75728155339805825"/>
+    <n v="520"/>
+    <n v="0.17475728155339806"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3"/>
+    <n v="96"/>
+    <n v="72"/>
+    <n v="4700"/>
+    <n v="9"/>
+    <n v="15"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="38"/>
+    <n v="94"/>
+    <n v="0.96875"/>
+    <n v="4.75"/>
+    <n v="1.4467592592592592E-3"/>
+    <n v="0.16666666666666666"/>
+    <n v="3.125E-2"/>
+    <n v="0.75"/>
+    <n v="522.22222222222217"/>
+    <n v="0.15625"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="5"/>
+    <n v="102"/>
+    <n v="87"/>
+    <n v="5900"/>
+    <n v="12"/>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="39"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="28"/>
+    <n v="80"/>
+    <n v="0.9509803921568627"/>
+    <n v="4.8666666666666663"/>
+    <n v="1.3522650439486139E-3"/>
+    <n v="0.14705882352941177"/>
+    <n v="4.9019607843137254E-2"/>
+    <n v="0.8529411764705882"/>
+    <n v="491.66666666666669"/>
+    <n v="0.19607843137254902"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="6"/>
+    <n v="107"/>
+    <n v="80"/>
+    <n v="5300"/>
+    <n v="11"/>
+    <n v="26"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="41"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="25"/>
+    <n v="85"/>
+    <n v="0.94392523364485981"/>
+    <n v="4.7142857142857144"/>
+    <n v="9.3457943925233649E-4"/>
+    <n v="0.13084112149532709"/>
+    <n v="5.6074766355140186E-2"/>
+    <n v="0.74766355140186913"/>
+    <n v="481.81818181818181"/>
+    <n v="0.24299065420560748"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3"/>
+    <n v="99"/>
+    <n v="74"/>
+    <n v="5000"/>
+    <n v="9"/>
+    <n v="17"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="20"/>
+    <n v="78"/>
+    <n v="0.96969696969696972"/>
+    <n v="4.6923076923076925"/>
+    <n v="1.2285012285012285E-3"/>
+    <n v="0.13131313131313133"/>
+    <n v="3.0303030303030304E-2"/>
+    <n v="0.74747474747474751"/>
+    <n v="555.55555555555554"/>
+    <n v="0.17171717171717171"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="5"/>
+    <n v="104"/>
+    <n v="85"/>
+    <n v="5600"/>
+    <n v="10"/>
+    <n v="23"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="32"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.95192307692307687"/>
+    <n v="4.75"/>
+    <n v="1.2443438914027148E-3"/>
+    <n v="0.11538461538461539"/>
+    <n v="4.807692307692308E-2"/>
+    <n v="0.81730769230769229"/>
+    <n v="560"/>
+    <n v="0.22115384615384615"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2"/>
+    <n v="101"/>
+    <n v="77"/>
+    <n v="5100"/>
+    <n v="11"/>
+    <n v="14"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="36"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="30"/>
+    <n v="92"/>
+    <n v="0.98019801980198018"/>
+    <n v="4.6363636363636367"/>
+    <n v="1.0286742960010286E-3"/>
+    <n v="0.10891089108910891"/>
+    <n v="1.9801980198019802E-2"/>
+    <n v="0.76237623762376239"/>
+    <n v="463.63636363636363"/>
+    <n v="0.13861386138613863"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="71"/>
+    <n v="4800"/>
+    <n v="8"/>
+    <n v="19"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Master's"/>
+    <n v="18"/>
+    <n v="85"/>
+    <n v="0.95744680851063835"/>
+    <n v="4.8"/>
+    <n v="1.4983518130056938E-3"/>
+    <n v="0.10638297872340426"/>
+    <n v="4.2553191489361701E-2"/>
+    <n v="0.75531914893617025"/>
+    <n v="600"/>
+    <n v="0.20212765957446807"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="8"/>
+    <n v="116"/>
+    <n v="92"/>
+    <n v="6300"/>
+    <n v="13"/>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="Bachelor's"/>
+    <n v="35"/>
+    <n v="78"/>
+    <n v="0.93103448275862066"/>
+    <n v="4.7777777777777777"/>
+    <n v="6.5592203898050976E-4"/>
+    <n v="7.7586206896551727E-2"/>
+    <n v="6.8965517241379309E-2"/>
+    <n v="0.7931034482758621"/>
+    <n v="484.61538461538464"/>
+    <n v="0.18103448275862069"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2"/>
+    <n v="97"/>
+    <n v="76"/>
+    <n v="5300"/>
+    <n v="10"/>
+    <n v="13"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="12"/>
+    <n v="4"/>
+    <s v="High School"/>
+    <n v="28"/>
+    <n v="90"/>
+    <n v="0.97938144329896903"/>
+    <n v="4.875"/>
+    <n v="1.6277807921866521E-3"/>
+    <n v="8.247422680412371E-2"/>
+    <n v="2.0618556701030927E-2"/>
+    <n v="0.78350515463917525"/>
+    <n v="530"/>
+    <n v="0.13402061855670103"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="5"/>
+    <n v="109"/>
+    <n v="84"/>
+    <n v="5600"/>
+    <n v="11"/>
+    <n v="27"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="30"/>
+    <n v="6"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="PhD"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.95412844036697253"/>
+    <n v="4.5714285714285712"/>
+    <n v="9.8296199213630396E-4"/>
+    <n v="6.4220183486238536E-2"/>
+    <n v="4.5871559633027525E-2"/>
+    <n v="0.77064220183486243"/>
+    <n v="509.09090909090907"/>
+    <n v="0.24770642201834864"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="6"/>
+    <n v="112"/>
+    <n v="80"/>
+    <n v="5400"/>
+    <n v="10"/>
+    <n v="22"/>
+    <x v="0"/>
+    <s v="NY"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="34"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="20"/>
+    <n v="85"/>
+    <n v="0.9464285714285714"/>
+    <n v="4.333333333333333"/>
+    <n v="8.9285714285714283E-4"/>
+    <n v="5.3571428571428568E-2"/>
+    <n v="5.3571428571428568E-2"/>
+    <n v="0.7142857142857143"/>
+    <n v="540"/>
+    <n v="0.19642857142857142"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="4"/>
+    <n v="101"/>
+    <n v="79"/>
+    <n v="5000"/>
+    <n v="9"/>
+    <n v="18"/>
+    <x v="1"/>
+    <s v="LA"/>
+    <s v="Manager"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="11"/>
+    <n v="3"/>
+    <s v="Master's"/>
+    <n v="32"/>
+    <n v="75"/>
+    <n v="0.96039603960396036"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.3786188745456825E-3"/>
+    <n v="4.9504950495049507E-2"/>
+    <n v="3.9603960396039604E-2"/>
+    <n v="0.78217821782178221"/>
+    <n v="555.55555555555554"/>
+    <n v="0.17821782178217821"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="3"/>
+    <n v="105"/>
+    <n v="88"/>
+    <n v="5800"/>
+    <n v="12"/>
+    <n v="16"/>
+    <x v="0"/>
+    <s v="SF"/>
+    <s v="Analyst"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="4"/>
+    <s v="Bachelor's"/>
+    <n v="25"/>
+    <n v="82"/>
+    <n v="0.97142857142857142"/>
+    <n v="4.5"/>
+    <n v="1.0822510822510823E-3"/>
+    <n v="3.8095238095238099E-2"/>
+    <n v="2.8571428571428571E-2"/>
+    <n v="0.83809523809523812"/>
+    <n v="483.33333333333331"/>
+    <n v="0.15238095238095239"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="7"/>
+    <n v="110"/>
+    <n v="82"/>
+    <n v="5500"/>
+    <n v="11"/>
+    <n v="25"/>
+    <x v="1"/>
+    <s v="NY"/>
+    <s v="Engineer"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="BU1"/>
+    <s v="D1"/>
+    <n v="31"/>
+    <n v="6"/>
+    <n v="9"/>
+    <n v="5"/>
+    <s v="High School"/>
+    <n v="28"/>
+    <n v="80"/>
+    <n v="0.9363636363636364"/>
+    <n v="4.666666666666667"/>
+    <n v="9.9778270509977827E-4"/>
+    <n v="2.7272727272727271E-2"/>
+    <n v="6.363636363636363E-2"/>
+    <n v="0.74545454545454548"/>
+    <n v="500"/>
+    <n v="0.22727272727272727"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="6"/>
+    <n v="107"/>
+    <n v="81"/>
+    <n v="5200"/>
+    <n v="10"/>
+    <n v="23"/>
+    <x v="0"/>
+    <s v="LA"/>
+    <s v="Specialist"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="BU2"/>
+    <s v="D2"/>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="4"/>
+    <s v="Associate's"/>
+    <n v="22"/>
+    <n v="88"/>
+    <n v="0.94392523364485981"/>
+    <n v="4"/>
+    <n v="9.2304142148378905E-4"/>
+    <n v="1.8691588785046728E-2"/>
+    <n v="5.6074766355140186E-2"/>
+    <n v="0.7570093457943925"/>
+    <n v="520"/>
+    <n v="0.21495327102803738"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="3"/>
+    <n v="98"/>
+    <n v="74"/>
+    <n v="4900"/>
+    <n v="9"/>
+    <n v="17"/>
+    <x v="1"/>
+    <s v="SF"/>
+    <s v="Developer"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="BU3"/>
+    <s v="D3"/>
+    <n v="37"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="3"/>
+    <s v="PhD"/>
+    <n v="35"/>
+    <n v="86"/>
+    <n v="0.96938775510204078"/>
+    <n v="3"/>
+    <n v="9.6525096525096527E-4"/>
+    <n v="1.020408163265306E-2"/>
+    <n v="3.0612244897959183E-2"/>
+    <n v="0.75510204081632648"/>
+    <n v="544.44444444444446"/>
+    <n v="0.17346938775510204"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="30"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40A6235F-D65F-4B8E-8734-F60C3CFA4A85}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:CN7" firstHeaderRow="1" firstDataRow="3" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
@@ -17525,6 +23682,628 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87A247D2-0306-451E-B641-D2B432F412C5}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:G53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="30">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="10"/>
+    <field x="9"/>
+    <field x="7"/>
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="50">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Sum of Cost-Per-Hire" fld="27" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Representation Rate" fld="29" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Skills Gap Percentage" fld="28" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Engagement Score" fld="26" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Turnover Rate" fld="25" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Engaged Employees" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B60FBED4-2ED9-40F1-8B1D-3D604FDA9182}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="30">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="32">
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="10"/>
+    <field x="11"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="44">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Representation Rate" fld="29" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17928,6 +24707,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B2619-6351-4D95-94F7-899F6F21F6CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6634FD-2EBF-4C28-967C-27853D1F26DE}">
   <dimension ref="A1:A14"/>
@@ -20917,11 +27710,1604 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4871734-ABA7-451E-A0FD-85EE01476DDA}">
+  <dimension ref="A3:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.05078125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2938.9976689976688</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8.5905990976769334E-3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.1696203750594663</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4.7124336663443982</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.29444504550128142</v>
+      </c>
+      <c r="G4" s="12">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2938.9976689976688</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8.5905990976769334E-3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.1696203750594663</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.7124336663443982</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.29444504550128142</v>
+      </c>
+      <c r="G5" s="12">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1453.8461538461538</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4.4726801309477107E-3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.65424876847290636</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.3466748768472909</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.18979885057471263</v>
+      </c>
+      <c r="G6" s="12">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12">
+        <v>500</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2.1386430678466076E-3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12">
+        <v>484.61538461538464</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7.1839080459770114E-4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="F8" s="12">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="12">
+        <v>469.23076923076923</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1.6156462585034015E-3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1485.151515151515</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4.1179189667292226E-3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.51537160658655989</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.3657587894971073</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.10464619492656875</v>
+      </c>
+      <c r="G10" s="12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12">
+        <v>481.81818181818181</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.295456648468585E-3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.24299065420560748</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.74766355140186913</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5.6074766355140186E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="12">
+        <v>520</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2.4489795918367346E-3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="12">
+        <v>483.33333333333331</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3.7348272642390292E-4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.15238095238095239</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.83809523809523812</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3199.1452991452988</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.0615102034609801E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1.1739138275655916</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.7587935409873934</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.29197909052190479</v>
+      </c>
+      <c r="G14" s="12">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3199.1452991452988</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.0615102034609801E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.1739138275655916</v>
+      </c>
+      <c r="E15" s="12">
+        <v>4.7587935409873934</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.29197909052190479</v>
+      </c>
+      <c r="G15" s="12">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1524.1452991452991</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4.0581250932032464E-3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.56560060098081422</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.4612063508141095</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.15818878563048122</v>
+      </c>
+      <c r="G16" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12">
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5.103603143819537E-4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.17821782178217821</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.78217821782178221</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3.9603960396039604E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12">
+        <v>491.66666666666669</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.5160703456640388E-3</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4.9019607843137254E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12">
+        <v>476.92307692307691</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.0316944331572532E-3</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.19130434782608696</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F19" s="12">
+        <v>6.9565217391304349E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1675</v>
+      </c>
+      <c r="C20" s="12">
+        <v>6.5569769414065534E-3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.60831322658477738</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.2975871901732838</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.13379030489142357</v>
+      </c>
+      <c r="G20" s="12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="12">
+        <v>575</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.2170491076377342E-3</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.20618556701030927</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.74226804123711343</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4.1237113402061855E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12">
+        <v>500</v>
+      </c>
+      <c r="C22" s="12">
+        <v>3.1578947368421052E-3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12">
+        <v>600</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.1820330969267139E-3</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.20212765957446807</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.75531914893617025</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="G23" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12">
+        <v>6253.712121212121</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1.7360992342018756E-2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2.2545517324897908</v>
+      </c>
+      <c r="E24" s="12">
+        <v>9.0470470047067444</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.48715757701015094</v>
+      </c>
+      <c r="G24" s="12">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="12">
+        <v>3177.2474747474748</v>
+      </c>
+      <c r="C25" s="12">
+        <v>8.7681848222648327E-3</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1.0175008109027872</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4.48391222043794</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.20795316172326148</v>
+      </c>
+      <c r="G25" s="12">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1552.5252525252527</v>
+      </c>
+      <c r="C26" s="12">
+        <v>3.463160494352335E-3</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.47534855526368958</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2.2827844008890681</v>
+      </c>
+      <c r="F26" s="12">
+        <v>8.1026469993938172E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="12">
+        <v>463.63636363636363</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1.1001100110011001E-3</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.13861386138613863</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.76237623762376239</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="12">
+        <v>544.44444444444446</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2.2556390977443606E-3</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.76530612244897955</v>
+      </c>
+      <c r="F28" s="12">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="12">
+        <v>544.44444444444446</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1.0741138560687432E-4</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1624.7222222222222</v>
+      </c>
+      <c r="C30" s="12">
+        <v>5.3050243279124977E-3</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.54215225563909775</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2.2011278195488719</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.1269266917293233</v>
+      </c>
+      <c r="G30" s="12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="12">
+        <v>562.5</v>
+      </c>
+      <c r="C31" s="12">
+        <v>3.0075187969924814E-3</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F31" s="12">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12">
+        <v>540</v>
+      </c>
+      <c r="C32" s="12">
+        <v>5.0539083557951474E-4</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F32" s="12">
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="12">
+        <v>522.22222222222217</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1.7921146953405018E-3</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.15625</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="12">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3076.4646464646466</v>
+      </c>
+      <c r="C34" s="12">
+        <v>8.5928075197539214E-3</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1.237050921587004</v>
+      </c>
+      <c r="E34" s="12">
+        <v>4.5631347842688053</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.2792044152868895</v>
+      </c>
+      <c r="G34" s="12">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1546.4646464646466</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3.6431183882640189E-3</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.65353535353535352</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2.2383838383838386</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.14848484848484847</v>
+      </c>
+      <c r="G35" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="12">
+        <v>490.90909090909093</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2.0104895104895103E-3</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.25454545454545452</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.74545454545454548</v>
+      </c>
+      <c r="F36" s="12">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="12">
+        <v>500</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2.64783759929391E-4</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.74545454545454548</v>
+      </c>
+      <c r="F37" s="12">
+        <v>6.363636363636363E-2</v>
+      </c>
+      <c r="G37" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="12">
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1.3678451178451179E-3</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.17171717171717171</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.74747474747474751</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12">
+        <v>1530</v>
+      </c>
+      <c r="C39" s="12">
+        <v>4.9496891314899033E-3</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.5835155680516505</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2.3247509458849667</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.13071956680204103</v>
+      </c>
+      <c r="G39" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="12">
+        <v>530</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8.6814975583288112E-4</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.13402061855670103</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.78350515463917525</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="12">
+        <v>500</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1.633986928104575E-3</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.76851851851851849</v>
+      </c>
+      <c r="F41" s="12">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="12">
+        <v>500</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2.4475524475524473E-3</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="F42" s="12">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="12">
+        <v>3125.757575757576</v>
+      </c>
+      <c r="C43" s="12">
+        <v>8.2514716708497055E-3</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1.201427963610773</v>
+      </c>
+      <c r="E43" s="12">
+        <v>4.654621745715958</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0.26504867671187765</v>
+      </c>
+      <c r="G43" s="12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="12">
+        <v>3125.757575757576</v>
+      </c>
+      <c r="C44" s="12">
+        <v>8.2514716708497055E-3</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1.201427963610773</v>
+      </c>
+      <c r="E44" s="12">
+        <v>4.654621745715958</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0.26504867671187765</v>
+      </c>
+      <c r="G44" s="12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="12">
+        <v>1562.4242424242425</v>
+      </c>
+      <c r="C45" s="12">
+        <v>4.8056671746149315E-3</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.56532084642888947</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.242209469518635</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.11327793966076677</v>
+      </c>
+      <c r="G45" s="12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="12">
+        <v>520</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1.6671570069628323E-3</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.17475728155339806</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="F46" s="12">
+        <v>3.8834951456310676E-2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12">
+        <v>533.33333333333337</v>
+      </c>
+      <c r="C47" s="12">
+        <v>2.5210084033613443E-3</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="12">
+        <v>509.09090909090907</v>
+      </c>
+      <c r="C48" s="12">
+        <v>6.1750176429075515E-4</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.24770642201834864</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.77064220183486243</v>
+      </c>
+      <c r="F48" s="12">
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="G48" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="12">
+        <v>1563.3333333333333</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3.4458044962347731E-3</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.63610711718188351</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2.412412276197323</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0.15177073705111088</v>
+      </c>
+      <c r="G49" s="12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="12">
+        <v>520</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1.8506523549551216E-4</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.7570093457943925</v>
+      </c>
+      <c r="F50" s="12">
+        <v>5.6074766355140186E-2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="12">
+        <v>560</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1.1655011655011655E-3</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.22115384615384615</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.81730769230769229</v>
+      </c>
+      <c r="F51" s="12">
+        <v>4.807692307692308E-2</v>
+      </c>
+      <c r="G51" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="12">
+        <v>483.33333333333331</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2.0952380952380953E-3</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.83809523809523812</v>
+      </c>
+      <c r="F52" s="12">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="12">
+        <v>15517.612665112665</v>
+      </c>
+      <c r="C53" s="12">
+        <v>4.4818165145155194E-2</v>
+      </c>
+      <c r="D53" s="12">
+        <v>5.799513898725623</v>
+      </c>
+      <c r="E53" s="12">
+        <v>23.172895957754506</v>
+      </c>
+      <c r="F53" s="12">
+        <v>1.3386303897452148</v>
+      </c>
+      <c r="G53" s="12">
+        <v>2423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C016DF-E6CE-405A-B03C-4E298437F210}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.41796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.20703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8.5905990976769334E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3.4340997163151924E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2.1386430678466076E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1.295456648468585E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3.1673703964344357E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7.1839080459770114E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2.4489795918367346E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1.9891289849273044E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.6156462585034015E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3.7348272642390292E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.0615102034609799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2.7274094220196879E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12">
+        <v>5.103603143819537E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2.2170491076377342E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12">
+        <v>4.6739650825061438E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1.5160703456640388E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3.1578947368421052E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3.2137275300839672E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2.0316944331572532E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1.1820330969267139E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1.7360992342018756E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12">
+        <v>6.986268074315973E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3.1105995214906106E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.8756685528253624E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="12">
+        <v>4.6598006213578406E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2.5204228576737515E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="12">
+        <v>2.1393777636840895E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12">
+        <v>5.7149236463449413E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1.4752565034519922E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="12">
+        <v>4.2396671428929491E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="12">
+        <v>8.2514716708497055E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1.8522222424583444E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1.6671570069628323E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1.8506523549551216E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="12">
+        <v>3.6865095688625098E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2.5210084033613443E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1.1655011655011655E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="12">
+        <v>2.7127398595288505E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="12">
+        <v>6.1750176429075515E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="12">
+        <v>2.0952380952380953E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="12">
+        <v>4.48181651451552E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD152BD-2898-4C6B-857B-708E05A922E4}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24056,18 +32442,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B2619-6351-4D95-94F7-899F6F21F6CA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>